--- a/Convert sang Excel.xlsx
+++ b/Convert sang Excel.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1001" documentId="8_{8AC4F373-45DA-4C6F-9E48-F8760569A774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3EBFB07-D8DD-488A-A6A9-4834A319C60D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="17" xr2:uid="{BC4884CE-C5EA-4424-AA7F-62D5CB132A30}"/>
+    <workbookView xWindow="5865" yWindow="3660" windowWidth="21600" windowHeight="11385" firstSheet="13" activeTab="17" xr2:uid="{BC4884CE-C5EA-4424-AA7F-62D5CB132A30}"/>
   </bookViews>
   <sheets>
     <sheet name="01. Thông dụng" sheetId="1" r:id="rId1"/>
